--- a/inputs/gedcomtest.xlsx
+++ b/inputs/gedcomtest.xlsx
@@ -475,6 +475,8 @@
   </si>
   <si>
     <t xml:space="preserve">nulla pariatur. At vver eos et accusam dignissum qui blandit est praesent luptatum delenit aigue excepteur sint occae. Et harumd dereud facilis est er expedit distinct. Nam libe soluta nobis eligent optio 
+nochmal "lorem ipusum" 
+blafasel usw.nochmal lorem ipusum blafasel usw.nochmal lorem ipusum blafasel usw.
 </t>
   </si>
 </sst>
@@ -1088,7 +1090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="120">
+    <row r="4" spans="1:32" ht="210">
       <c r="A4" s="2" t="s">
         <v>65</v>
       </c>

--- a/inputs/gedcomtest.xlsx
+++ b/inputs/gedcomtest.xlsx
@@ -873,7 +873,7 @@
   <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
